--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
@@ -49,9 +49,6 @@
     <t>Konstant</t>
   </si>
   <si>
-    <t>Lösung 1</t>
-  </si>
-  <si>
     <t>Max Error(Meters)</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Rekursive Lineare Kodierung</t>
+  </si>
+  <si>
+    <t>Lösung DCT</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lösung 1</c:v>
+                  <c:v>Lösung DCT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -703,11 +703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131799024"/>
-        <c:axId val="131799416"/>
+        <c:axId val="261821256"/>
+        <c:axId val="261823608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131799024"/>
+        <c:axId val="261821256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -831,13 +831,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131799416"/>
+        <c:crossAx val="261823608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131799416"/>
+        <c:axId val="261823608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -951,7 +951,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131799024"/>
+        <c:crossAx val="261821256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>101.23486017714499</v>
       </c>
       <c r="U4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>5802769.2857510503</v>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
@@ -703,13 +703,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261821256"/>
-        <c:axId val="261823608"/>
+        <c:axId val="269379776"/>
+        <c:axId val="269384480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261821256"/>
+        <c:axId val="269379776"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
         </c:scaling>
@@ -831,13 +831,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261823608"/>
+        <c:crossAx val="269384480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261823608"/>
+        <c:axId val="269384480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -951,7 +950,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261821256"/>
+        <c:crossAx val="269379776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -703,11 +703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269379776"/>
-        <c:axId val="269384480"/>
+        <c:axId val="290710160"/>
+        <c:axId val="290715256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269379776"/>
+        <c:axId val="290710160"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -831,12 +831,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269384480"/>
+        <c:crossAx val="290715256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269384480"/>
+        <c:axId val="290715256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -950,7 +950,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269379776"/>
+        <c:crossAx val="290710160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1915,22 +1915,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,11 +703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290710160"/>
-        <c:axId val="290715256"/>
+        <c:axId val="245249704"/>
+        <c:axId val="245253232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290710160"/>
+        <c:axId val="245249704"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -738,10 +738,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -749,16 +746,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -780,10 +789,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -818,10 +824,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -831,12 +834,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290715256"/>
+        <c:crossAx val="245253232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290715256"/>
+        <c:axId val="245253232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -866,10 +869,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -877,7 +877,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>PSNR-HVS-M (dB)</a:t>
                 </a:r>
               </a:p>
@@ -899,10 +903,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -937,10 +938,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -950,7 +948,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290710160"/>
+        <c:crossAx val="245249704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -984,10 +982,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1915,22 +1910,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2086,7 +2081,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2132,7 +2127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2146,13 +2141,13 @@
         <v>94.762321073135794</v>
       </c>
       <c r="U6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="V6">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante2/resultate_median - Copy.xlsx
@@ -673,7 +673,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,15 +703,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245249704"/>
-        <c:axId val="245253232"/>
+        <c:axId val="260044312"/>
+        <c:axId val="260042352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245249704"/>
+        <c:axId val="260044312"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
+          <c:max val="256"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -834,12 +835,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245253232"/>
+        <c:crossAx val="260042352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245253232"/>
+        <c:axId val="260042352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85"/>
@@ -948,7 +949,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245249704"/>
+        <c:crossAx val="260044312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1025,7 +1026,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1910,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2142,7 @@
         <v>94.762321073135794</v>
       </c>
       <c r="U6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V6">
         <v>95</v>
